--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2474.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2474.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167677145195622</v>
+        <v>1.430167198181152</v>
       </c>
       <c r="B1">
-        <v>2.787350626135862</v>
+        <v>2.075509071350098</v>
       </c>
       <c r="C1">
-        <v>5.937808879149003</v>
+        <v>2.231804609298706</v>
       </c>
       <c r="D1">
-        <v>3.74254422668618</v>
+        <v>4.126387119293213</v>
       </c>
       <c r="E1">
-        <v>0.9527217589717312</v>
+        <v>0.865297257900238</v>
       </c>
     </row>
   </sheetData>
